--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,10 +1066,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9935434098458015</v>
+        <v>0.9935434098458009</v>
       </c>
       <c r="D13">
-        <v>0.9981320030533806</v>
+        <v>0.9981320030533807</v>
       </c>
       <c r="E13">
         <v>0.9902981108190573</v>
@@ -1078,10 +1078,10 @@
         <v>0.9870418116290753</v>
       </c>
       <c r="G13">
-        <v>0.9935434098458015</v>
+        <v>0.9935434098458009</v>
       </c>
       <c r="H13">
-        <v>0.9981320030533806</v>
+        <v>0.9981320030533807</v>
       </c>
       <c r="I13">
         <v>0.9921029124657249</v>
@@ -1096,16 +1096,16 @@
         <v>0.9907160443981665</v>
       </c>
       <c r="M13">
-        <v>0.9935154270865928</v>
+        <v>0.9935154270865922</v>
       </c>
       <c r="N13">
         <v>0.9942150569362189</v>
       </c>
       <c r="O13">
-        <v>0.9922538338368287</v>
+        <v>0.9922538338368285</v>
       </c>
       <c r="P13">
-        <v>0.9915213352877554</v>
+        <v>0.9915213352877553</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1190,7 +1190,7 @@
         <v>1.017333132782812</v>
       </c>
       <c r="K15">
-        <v>0.9528451756391161</v>
+        <v>0.952845175639116</v>
       </c>
       <c r="L15">
         <v>1.071454969913451</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>1.001084522021237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.431032689423501</v>
+      </c>
+      <c r="D16">
+        <v>0.9794719751908326</v>
+      </c>
+      <c r="E16">
+        <v>1.214231639073742</v>
+      </c>
+      <c r="F16">
+        <v>0.8408026335015744</v>
+      </c>
+      <c r="G16">
+        <v>1.431032689423501</v>
+      </c>
+      <c r="H16">
+        <v>0.9794719751908326</v>
+      </c>
+      <c r="I16">
+        <v>1.091868016818288</v>
+      </c>
+      <c r="J16">
+        <v>0.8489512606847928</v>
+      </c>
+      <c r="K16">
+        <v>1.019012699760681</v>
+      </c>
+      <c r="L16">
+        <v>0.8639407924363697</v>
+      </c>
+      <c r="M16">
+        <v>1.431047313487744</v>
+      </c>
+      <c r="N16">
+        <v>1.096851807132287</v>
+      </c>
+      <c r="O16">
+        <v>1.116384734297413</v>
+      </c>
+      <c r="P16">
+        <v>1.036163963361223</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.431032689423501</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
@@ -1069,10 +1069,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9935434098458009</v>
+        <v>0.9935434098458015</v>
       </c>
       <c r="D13">
-        <v>0.9981320030533807</v>
+        <v>0.9981320030533806</v>
       </c>
       <c r="E13">
         <v>0.9902981108190573</v>
@@ -1081,10 +1081,10 @@
         <v>0.9870418116290753</v>
       </c>
       <c r="G13">
-        <v>0.9935434098458009</v>
+        <v>0.9935434098458015</v>
       </c>
       <c r="H13">
-        <v>0.9981320030533807</v>
+        <v>0.9981320030533806</v>
       </c>
       <c r="I13">
         <v>0.9921029124657249</v>
@@ -1099,16 +1099,16 @@
         <v>0.9907160443981665</v>
       </c>
       <c r="M13">
-        <v>0.9935154270865922</v>
+        <v>0.9935154270865928</v>
       </c>
       <c r="N13">
         <v>0.9942150569362189</v>
       </c>
       <c r="O13">
-        <v>0.9922538338368285</v>
+        <v>0.9922538338368287</v>
       </c>
       <c r="P13">
-        <v>0.9915213352877553</v>
+        <v>0.9915213352877554</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1193,7 +1193,7 @@
         <v>1.017333132782812</v>
       </c>
       <c r="K15">
-        <v>0.952845175639116</v>
+        <v>0.9528451756391161</v>
       </c>
       <c r="L15">
         <v>1.071454969913451</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.320187999999999</v>
+        <v>1.431032689423501</v>
       </c>
       <c r="D10">
-        <v>0.03040000000000005</v>
+        <v>0.9794719751908326</v>
       </c>
       <c r="E10">
-        <v>2.212935999999999</v>
+        <v>1.214231639073742</v>
       </c>
       <c r="F10">
-        <v>0.9324560000000014</v>
+        <v>0.8408026335015744</v>
       </c>
       <c r="G10">
-        <v>0.320187999999999</v>
+        <v>1.431032689423501</v>
       </c>
       <c r="H10">
-        <v>0.03040000000000005</v>
+        <v>0.9794719751908326</v>
       </c>
       <c r="I10">
-        <v>1.462464000000001</v>
+        <v>1.091868016818288</v>
       </c>
       <c r="J10">
-        <v>0.8357559999999996</v>
+        <v>0.8489512606847928</v>
       </c>
       <c r="K10">
-        <v>1.356939999999997</v>
+        <v>1.019012699760681</v>
       </c>
       <c r="L10">
-        <v>0.3413400000000005</v>
+        <v>0.8639407924363697</v>
       </c>
       <c r="M10">
-        <v>0.320187999999999</v>
+        <v>1.431047313487744</v>
       </c>
       <c r="N10">
-        <v>1.121668</v>
+        <v>1.096851807132287</v>
       </c>
       <c r="O10">
-        <v>0.873995</v>
+        <v>1.116384734297413</v>
       </c>
       <c r="P10">
-        <v>0.9365599999999998</v>
+        <v>1.036163963361223</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.43</v>
+        <v>0.9905450009565365</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.04764770810301898</v>
       </c>
       <c r="E11">
-        <v>2.442362500000002</v>
+        <v>1.667243911576986</v>
       </c>
       <c r="F11">
-        <v>0.8126625000000011</v>
+        <v>0.8722746534224871</v>
       </c>
       <c r="G11">
-        <v>0.43</v>
+        <v>0.9905450009565365</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04764770810301898</v>
       </c>
       <c r="I11">
-        <v>1.610862499999995</v>
+        <v>1.316676374834493</v>
       </c>
       <c r="J11">
-        <v>0.5079250000000002</v>
+        <v>1.036123905525455</v>
       </c>
       <c r="K11">
-        <v>1.689037499999998</v>
+        <v>1.044071865548856</v>
       </c>
       <c r="L11">
-        <v>0.18</v>
+        <v>0.398367679958977</v>
       </c>
       <c r="M11">
-        <v>0.43</v>
+        <v>0.9905450009565365</v>
       </c>
       <c r="N11">
-        <v>1.221181250000001</v>
+        <v>0.8574458098400026</v>
       </c>
       <c r="O11">
-        <v>0.9212562500000009</v>
+        <v>0.8944278185147573</v>
       </c>
       <c r="P11">
-        <v>0.9591062499999996</v>
+        <v>0.9216188874908513</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6974514122752004</v>
+        <v>0.9835438214198388</v>
       </c>
       <c r="D12">
-        <v>0.4004946589696001</v>
+        <v>0.04775026955329389</v>
       </c>
       <c r="E12">
-        <v>1.809522171289599</v>
+        <v>1.665651853766884</v>
       </c>
       <c r="F12">
-        <v>0.8839243951104017</v>
+        <v>0.8742351688860515</v>
       </c>
       <c r="G12">
-        <v>0.6974514122752004</v>
+        <v>0.9835438214198388</v>
       </c>
       <c r="H12">
-        <v>0.4004946589696001</v>
+        <v>0.04775026955329389</v>
       </c>
       <c r="I12">
-        <v>1.345522969702401</v>
+        <v>1.315570487665723</v>
       </c>
       <c r="J12">
-        <v>0.7269277276160011</v>
+        <v>1.03819736992039</v>
       </c>
       <c r="K12">
-        <v>1.371488815513599</v>
+        <v>1.04404674607472</v>
       </c>
       <c r="L12">
-        <v>0.5222412793856009</v>
+        <v>0.3992774766780214</v>
       </c>
       <c r="M12">
-        <v>0.6973998473215998</v>
+        <v>0.9835438214198388</v>
       </c>
       <c r="N12">
-        <v>1.105008415129599</v>
+        <v>0.8567010616600887</v>
       </c>
       <c r="O12">
-        <v>0.9478481594112002</v>
+        <v>0.892795278406517</v>
       </c>
       <c r="P12">
-        <v>0.9696966787328003</v>
+        <v>0.9210341492456152</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9935434098458015</v>
+        <v>0.9889001708670686</v>
       </c>
       <c r="D13">
-        <v>0.9981320030533806</v>
+        <v>0.04764538641199453</v>
       </c>
       <c r="E13">
-        <v>0.9902981108190573</v>
+        <v>1.667342640681802</v>
       </c>
       <c r="F13">
-        <v>0.9870418116290753</v>
+        <v>0.8726856983582185</v>
       </c>
       <c r="G13">
-        <v>0.9935434098458015</v>
+        <v>0.9889001708670686</v>
       </c>
       <c r="H13">
-        <v>0.9981320030533806</v>
+        <v>0.04764538641199453</v>
       </c>
       <c r="I13">
-        <v>0.9921029124657249</v>
+        <v>1.316567295785394</v>
       </c>
       <c r="J13">
-        <v>0.9907313663900262</v>
+        <v>1.036749052037742</v>
       </c>
       <c r="K13">
-        <v>0.9896050237008106</v>
+        <v>1.043443090767422</v>
       </c>
       <c r="L13">
-        <v>0.9907160443981665</v>
+        <v>0.3984106438106491</v>
       </c>
       <c r="M13">
-        <v>0.9935154270865928</v>
+        <v>0.9889001708670686</v>
       </c>
       <c r="N13">
-        <v>0.9942150569362189</v>
+        <v>0.8574940135468984</v>
       </c>
       <c r="O13">
-        <v>0.9922538338368287</v>
+        <v>0.894143474079771</v>
       </c>
       <c r="P13">
-        <v>0.9915213352877554</v>
+        <v>0.9214679973400363</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9536572955620595</v>
+        <v>0.320187999999999</v>
       </c>
       <c r="D14">
-        <v>0.9819509516483769</v>
+        <v>0.03040000000000005</v>
       </c>
       <c r="E14">
-        <v>1.011086090386303</v>
+        <v>2.212935999999999</v>
       </c>
       <c r="F14">
-        <v>1.063865736471009</v>
+        <v>0.9324560000000014</v>
       </c>
       <c r="G14">
-        <v>0.9536572955620595</v>
+        <v>0.320187999999999</v>
       </c>
       <c r="H14">
-        <v>0.9819509516483769</v>
+        <v>0.03040000000000005</v>
       </c>
       <c r="I14">
-        <v>0.9467545999943179</v>
+        <v>1.462464000000001</v>
       </c>
       <c r="J14">
-        <v>0.9909727471333972</v>
+        <v>0.8357559999999996</v>
       </c>
       <c r="K14">
-        <v>1.015379311671147</v>
+        <v>1.356939999999997</v>
       </c>
       <c r="L14">
-        <v>1.007800727648787</v>
+        <v>0.3413400000000005</v>
       </c>
       <c r="M14">
-        <v>0.9536572955620595</v>
+        <v>0.320187999999999</v>
       </c>
       <c r="N14">
-        <v>0.9965185210173401</v>
+        <v>1.121668</v>
       </c>
       <c r="O14">
-        <v>1.002640018516937</v>
+        <v>0.873995</v>
       </c>
       <c r="P14">
-        <v>0.9964334325644246</v>
+        <v>0.9365599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9410030045333887</v>
+        <v>0.43</v>
       </c>
       <c r="D15">
-        <v>1.114073650171882</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.971963238905884</v>
+        <v>2.442362500000002</v>
       </c>
       <c r="F15">
-        <v>1.00197140221889</v>
+        <v>0.8126625000000011</v>
       </c>
       <c r="G15">
-        <v>0.9410030045333887</v>
+        <v>0.43</v>
       </c>
       <c r="H15">
-        <v>1.114073650171882</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9380316020044707</v>
+        <v>1.610862499999995</v>
       </c>
       <c r="J15">
-        <v>1.017333132782812</v>
+        <v>0.5079250000000002</v>
       </c>
       <c r="K15">
-        <v>0.9528451756391161</v>
+        <v>1.689037499999998</v>
       </c>
       <c r="L15">
-        <v>1.071454969913451</v>
+        <v>0.18</v>
       </c>
       <c r="M15">
-        <v>0.9409757761636619</v>
+        <v>0.43</v>
       </c>
       <c r="N15">
-        <v>1.043018444538883</v>
+        <v>1.221181250000001</v>
       </c>
       <c r="O15">
-        <v>1.007252823957511</v>
+        <v>0.9212562500000009</v>
       </c>
       <c r="P15">
-        <v>1.001084522021237</v>
+        <v>0.9591062499999996</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.431032689423501</v>
+        <v>0.6974514122752004</v>
       </c>
       <c r="D16">
-        <v>0.9794719751908326</v>
+        <v>0.4004946589696001</v>
       </c>
       <c r="E16">
-        <v>1.214231639073742</v>
+        <v>1.809522171289599</v>
       </c>
       <c r="F16">
-        <v>0.8408026335015744</v>
+        <v>0.8839243951104017</v>
       </c>
       <c r="G16">
-        <v>1.431032689423501</v>
+        <v>0.6974514122752004</v>
       </c>
       <c r="H16">
-        <v>0.9794719751908326</v>
+        <v>0.4004946589696001</v>
       </c>
       <c r="I16">
-        <v>1.091868016818288</v>
+        <v>1.345522969702401</v>
       </c>
       <c r="J16">
-        <v>0.8489512606847928</v>
+        <v>0.7269277276160011</v>
       </c>
       <c r="K16">
-        <v>1.019012699760681</v>
+        <v>1.371488815513599</v>
       </c>
       <c r="L16">
-        <v>0.8639407924363697</v>
+        <v>0.5222412793856009</v>
       </c>
       <c r="M16">
-        <v>1.431047313487744</v>
+        <v>0.6973998473215998</v>
       </c>
       <c r="N16">
-        <v>1.096851807132287</v>
+        <v>1.105008415129599</v>
       </c>
       <c r="O16">
-        <v>1.116384734297413</v>
+        <v>0.9478481594112002</v>
       </c>
       <c r="P16">
-        <v>1.036163963361223</v>
+        <v>0.9696966787328003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9935434098458009</v>
+      </c>
+      <c r="D17">
+        <v>0.9981320030533807</v>
+      </c>
+      <c r="E17">
+        <v>0.9902981108190573</v>
+      </c>
+      <c r="F17">
+        <v>0.9870418116290753</v>
+      </c>
+      <c r="G17">
+        <v>0.9935434098458009</v>
+      </c>
+      <c r="H17">
+        <v>0.9981320030533807</v>
+      </c>
+      <c r="I17">
+        <v>0.9921029124657249</v>
+      </c>
+      <c r="J17">
+        <v>0.9907313663900262</v>
+      </c>
+      <c r="K17">
+        <v>0.9896050237008106</v>
+      </c>
+      <c r="L17">
+        <v>0.9907160443981665</v>
+      </c>
+      <c r="M17">
+        <v>0.9935154270865922</v>
+      </c>
+      <c r="N17">
+        <v>0.9942150569362189</v>
+      </c>
+      <c r="O17">
+        <v>0.9922538338368285</v>
+      </c>
+      <c r="P17">
+        <v>0.9915213352877553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9536572955620595</v>
+      </c>
+      <c r="D18">
+        <v>0.9819509516483769</v>
+      </c>
+      <c r="E18">
+        <v>1.011086090386303</v>
+      </c>
+      <c r="F18">
+        <v>1.063865736471009</v>
+      </c>
+      <c r="G18">
+        <v>0.9536572955620595</v>
+      </c>
+      <c r="H18">
+        <v>0.9819509516483769</v>
+      </c>
+      <c r="I18">
+        <v>0.9467545999943179</v>
+      </c>
+      <c r="J18">
+        <v>0.9909727471333972</v>
+      </c>
+      <c r="K18">
+        <v>1.015379311671147</v>
+      </c>
+      <c r="L18">
+        <v>1.007800727648787</v>
+      </c>
+      <c r="M18">
+        <v>0.9536572955620595</v>
+      </c>
+      <c r="N18">
+        <v>0.9965185210173401</v>
+      </c>
+      <c r="O18">
+        <v>1.002640018516937</v>
+      </c>
+      <c r="P18">
+        <v>0.9964334325644246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9410030045333887</v>
+      </c>
+      <c r="D19">
+        <v>1.114073650171882</v>
+      </c>
+      <c r="E19">
+        <v>0.971963238905884</v>
+      </c>
+      <c r="F19">
+        <v>1.00197140221889</v>
+      </c>
+      <c r="G19">
+        <v>0.9410030045333887</v>
+      </c>
+      <c r="H19">
+        <v>1.114073650171882</v>
+      </c>
+      <c r="I19">
+        <v>0.9380316020044707</v>
+      </c>
+      <c r="J19">
+        <v>1.017333132782812</v>
+      </c>
+      <c r="K19">
+        <v>0.952845175639116</v>
+      </c>
+      <c r="L19">
+        <v>1.071454969913451</v>
+      </c>
+      <c r="M19">
+        <v>0.9409757761636619</v>
+      </c>
+      <c r="N19">
+        <v>1.043018444538883</v>
+      </c>
+      <c r="O19">
+        <v>1.007252823957511</v>
+      </c>
+      <c r="P19">
+        <v>1.001084522021237</v>
       </c>
     </row>
   </sheetData>
